--- a/downloaded_files/MTHS204_Lecture-35892.xlsx
+++ b/downloaded_files/MTHS204_Lecture-35892.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
     <x:t>1230149</x:t>
@@ -557,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -948,7 +957,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45915.56459375</x:v>
+        <x:v>45930.4076183681</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -980,7 +989,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45915.5585787384</x:v>
+        <x:v>45915.56459375</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1012,7 +1021,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45915.5542416319</x:v>
+        <x:v>45915.5585787384</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1044,7 +1053,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.5564246181</x:v>
+        <x:v>45915.5542416319</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1076,7 +1085,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.561518287</x:v>
+        <x:v>45915.5564246181</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1108,7 +1117,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.5654710301</x:v>
+        <x:v>45915.561518287</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1149,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.5665562847</x:v>
+        <x:v>45915.5654710301</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1181,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5622429051</x:v>
+        <x:v>45915.5665562847</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.552968287</x:v>
+        <x:v>45915.5622429051</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.5560574884</x:v>
+        <x:v>45915.552968287</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.5662304398</x:v>
+        <x:v>45915.5560574884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.5670674421</x:v>
+        <x:v>45915.5662304398</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.5548203356</x:v>
+        <x:v>45915.5670674421</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5583446412</x:v>
+        <x:v>45915.5548203356</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.635083831</x:v>
+        <x:v>45915.5583446412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.5536765394</x:v>
+        <x:v>45915.635083831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5526201736</x:v>
+        <x:v>45915.5536765394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5521185185</x:v>
+        <x:v>45915.5526201736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.5551049769</x:v>
+        <x:v>45915.5521185185</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.5569023958</x:v>
+        <x:v>45915.5551049769</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.5553030093</x:v>
+        <x:v>45915.5569023958</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5562408565</x:v>
+        <x:v>45915.5553030093</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5610840278</x:v>
+        <x:v>45915.5562408565</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5621158565</x:v>
+        <x:v>45915.5610840278</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5597443634</x:v>
+        <x:v>45915.5621158565</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5600254282</x:v>
+        <x:v>45915.5597443634</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6344335301</x:v>
+        <x:v>45915.5600254282</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.6366481829</x:v>
+        <x:v>45915.6344335301</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.6356466782</x:v>
+        <x:v>45915.6366481829</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5664047106</x:v>
+        <x:v>45915.6356466782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.5604264236</x:v>
+        <x:v>45915.5664047106</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1936,9 +1945,11 @@
       <x:c r="C33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s"/>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5535164352</x:v>
+        <x:v>45915.5604264236</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1961,16 +1972,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
+      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45915.5618991551</x:v>
+        <x:v>45915.5535164352</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2002,7 +2011,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.559368287</x:v>
+        <x:v>45915.5618991551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2034,7 +2043,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.55583125</x:v>
+        <x:v>45915.559368287</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2066,7 +2075,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.5528646644</x:v>
+        <x:v>45915.55583125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2098,7 +2107,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5530858449</x:v>
+        <x:v>45915.5528646644</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2130,7 +2139,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5587817477</x:v>
+        <x:v>45915.5530858449</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2162,7 +2171,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5531984954</x:v>
+        <x:v>45915.5587817477</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2194,7 +2203,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5522183218</x:v>
+        <x:v>45915.5531984954</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2226,7 +2235,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5601771181</x:v>
+        <x:v>45915.5522183218</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2258,7 +2267,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.6370412037</x:v>
+        <x:v>45915.5601771181</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2299,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.5546768866</x:v>
+        <x:v>45915.6370412037</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2331,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5580885417</x:v>
+        <x:v>45915.5546768866</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5566680208</x:v>
+        <x:v>45915.5580885417</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5549658912</x:v>
+        <x:v>45915.5566680208</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,6 +2412,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45915.5549658912</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Lecture-35892.xlsx
+++ b/downloaded_files/MTHS204_Lecture-35892.xlsx
@@ -69,6 +69,15 @@
     <x:t>ahmed mohamed hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1230156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادم عمرو محرم عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adam Amr Moharram</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230344</x:t>
   </x:si>
   <x:si>
@@ -292,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>Amr sameh labib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2240006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فارس احمد سيد احمد شافعى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fares</x:t>
   </x:si>
   <x:si>
     <x:t>1230227</x:t>
@@ -1085,7 +1085,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.5564246181</x:v>
+        <x:v>45907.4200732986</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1117,7 +1117,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.561518287</x:v>
+        <x:v>45915.5564246181</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1149,7 +1149,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.5654710301</x:v>
+        <x:v>45915.561518287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1181,7 +1181,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5665562847</x:v>
+        <x:v>45915.5654710301</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1213,7 +1213,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5622429051</x:v>
+        <x:v>45915.5665562847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1245,7 +1245,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.552968287</x:v>
+        <x:v>45915.5622429051</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1277,7 +1277,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.5560574884</x:v>
+        <x:v>45915.552968287</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1309,7 +1309,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.5662304398</x:v>
+        <x:v>45915.5560574884</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1341,7 +1341,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.5670674421</x:v>
+        <x:v>45915.5662304398</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1373,7 +1373,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5548203356</x:v>
+        <x:v>45915.5670674421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.5583446412</x:v>
+        <x:v>45915.5548203356</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.635083831</x:v>
+        <x:v>45915.5583446412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1469,7 +1469,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5536765394</x:v>
+        <x:v>45915.635083831</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1501,7 +1501,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5526201736</x:v>
+        <x:v>45915.5536765394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1533,7 +1533,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.5521185185</x:v>
+        <x:v>45915.5526201736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.5551049769</x:v>
+        <x:v>45915.5521185185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.5569023958</x:v>
+        <x:v>45915.5551049769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5553030093</x:v>
+        <x:v>45915.5569023958</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5562408565</x:v>
+        <x:v>45915.5553030093</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5610840278</x:v>
+        <x:v>45915.5562408565</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5621158565</x:v>
+        <x:v>45915.5610840278</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5597443634</x:v>
+        <x:v>45915.5621158565</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5600254282</x:v>
+        <x:v>45915.5597443634</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1821,7 +1821,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.6344335301</x:v>
+        <x:v>45915.5600254282</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1853,7 +1853,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.6366481829</x:v>
+        <x:v>45915.6344335301</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1885,7 +1885,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.6356466782</x:v>
+        <x:v>45915.6366481829</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/MTHS204_Lecture-35892.xlsx
+++ b/downloaded_files/MTHS204_Lecture-35892.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -352,6 +352,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عطا على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Atta Ali Elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230257</x:t>
@@ -566,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2107,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5528646644</x:v>
+        <x:v>45936.5615258102</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2139,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5530858449</x:v>
+        <x:v>45915.5528646644</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2171,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5587817477</x:v>
+        <x:v>45915.5530858449</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2203,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5531984954</x:v>
+        <x:v>45915.5587817477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2235,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5522183218</x:v>
+        <x:v>45915.5531984954</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2267,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.5601771181</x:v>
+        <x:v>45915.5522183218</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2299,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.6370412037</x:v>
+        <x:v>45915.5601771181</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2331,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5546768866</x:v>
+        <x:v>45915.6370412037</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2363,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5580885417</x:v>
+        <x:v>45915.5546768866</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2395,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5566680208</x:v>
+        <x:v>45915.5580885417</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2427,7 +2436,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.5549658912</x:v>
+        <x:v>45915.5566680208</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2444,6 +2453,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45915.5549658912</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Lecture-35892.xlsx
+++ b/downloaded_files/MTHS204_Lecture-35892.xlsx
@@ -342,7 +342,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>
@@ -369,7 +369,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230325</x:t>
@@ -441,7 +441,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230293</x:t>
